--- a/SubsetExportTool/sources/questionIndex.xlsx
+++ b/SubsetExportTool/sources/questionIndex.xlsx
@@ -813,9 +813,6 @@
     <t>In.what.industry.do.you.currently.work?.-.Selected.Choice</t>
   </si>
   <si>
-    <t>In.what.industry.do.you.currently.work?.-.Selected.Choice.(Scrubbed)</t>
-  </si>
-  <si>
     <t>In.what.industry.do.you.currently.work?.-.Other.-.Text</t>
   </si>
   <si>
@@ -825,18 +822,12 @@
     <t>Which.level.of.the.following.best.describes.your.current.position?.-.Selected.Choice</t>
   </si>
   <si>
-    <t>Which.level.of.the.following.best.describes.your.current.position?.-.Selected.Choice.(Srubbed)</t>
-  </si>
-  <si>
     <t>Which.level.of.the.following.best.describes.your.current.position?.-.Other.-.Text</t>
   </si>
   <si>
     <t>Which.level.of.the.following.best.describes.your.current.position?.-.Other.-.Text.(Scrubbed)</t>
   </si>
   <si>
-    <t>Please.indicate.your.individual.annual.salary.earnings.before.taxes.in.U.S..dollars..(NOTE:.Use.only.numbers..Do.not.include.decimals.).THIS.INFORMATION.IS.ONLY.REPORTED.IN.AGGREGATE.</t>
-  </si>
-  <si>
     <t>What.is.your.position.or.job.title?</t>
   </si>
   <si>
@@ -945,9 +936,6 @@
     <t>If.you.have.completed.your.service,.please.enter.the.year.that.your.service.ended.(if.you.are.currently.serving,.leave.this.item.blank).(If.entering.a.year,.please.enter.a.4.digit.year.only):</t>
   </si>
   <si>
-    <t>TOTAL.YEARS</t>
-  </si>
-  <si>
     <t>Please.provide.your.contact.information,.with.the.assurance.that.your.survey.responses.will.be.kept.confidential..-.First.Name</t>
   </si>
   <si>
@@ -2050,6 +2038,18 @@
   </si>
   <si>
     <t>X.Program.Level</t>
+  </si>
+  <si>
+    <t>Please.indicate.your.individual.annual.salary.earnings.before.taxes.in.U.S.dollars.</t>
+  </si>
+  <si>
+    <t>In.what.industry.do.you.currently.work?.</t>
+  </si>
+  <si>
+    <t>Which.level.of.the.following.best.describes.your.current.position?.</t>
+  </si>
+  <si>
+    <t>Years.served</t>
   </si>
 </sst>
 </file>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
         <v>224</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
         <v>225</v>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" t="s">
         <v>443</v>
-      </c>
-      <c r="B4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C4" t="s">
-        <v>447</v>
       </c>
       <c r="D4" t="s">
         <v>226</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C5" t="s">
         <v>227</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
         <v>228</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
         <v>229</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D8" t="s">
         <v>230</v>
@@ -3038,13 +3038,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
         <v>231</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
         <v>232</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D11" t="s">
         <v>233</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D12" t="s">
         <v>234</v>
@@ -3094,13 +3094,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D13" t="s">
         <v>235</v>
@@ -3108,13 +3108,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D14" t="s">
         <v>236</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
         <v>237</v>
@@ -3136,13 +3136,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
         <v>238</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
         <v>239</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D18" t="s">
         <v>240</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
         <v>241</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D20" t="s">
         <v>242</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D21" t="s">
         <v>243</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D22" t="s">
         <v>244</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>
@@ -3248,13 +3248,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D24" t="s">
         <v>246</v>
@@ -3262,13 +3262,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
         <v>247</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D27" t="s">
         <v>249</v>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D28" t="s">
         <v>250</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
         <v>251</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
         <v>252</v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D31" t="s">
         <v>253</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D32" t="s">
         <v>254</v>
@@ -3374,13 +3374,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D33" t="s">
         <v>255</v>
@@ -4368,13 +4368,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C104" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D104" t="s">
         <v>256</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C105" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D105" t="s">
         <v>257</v>
@@ -4396,13 +4396,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C106" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D106" t="s">
         <v>258</v>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
+        <v>477</v>
+      </c>
+      <c r="B107" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" t="s">
         <v>481</v>
-      </c>
-      <c r="B107" t="s">
-        <v>329</v>
-      </c>
-      <c r="C107" t="s">
-        <v>485</v>
       </c>
       <c r="D107" t="s">
         <v>259</v>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C108" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D108" t="s">
         <v>260</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D109" t="s">
         <v>261</v>
@@ -4452,13 +4452,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C110" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D110" t="s">
         <v>262</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D111" t="s">
         <v>263</v>
@@ -4480,881 +4480,881 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
+        <v>483</v>
+      </c>
+      <c r="B112" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" t="s">
         <v>487</v>
       </c>
-      <c r="B112" t="s">
-        <v>334</v>
-      </c>
-      <c r="C112" t="s">
-        <v>491</v>
-      </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>674</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C113" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C114" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B115" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C115" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C116" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C117" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C119" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D119" t="s">
-        <v>271</v>
+        <v>673</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C120" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D120" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D121" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C122" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D122" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C123" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C124" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C125" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C126" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D126" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C127" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D129" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C130" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C131" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B132" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C132" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B133" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C133" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B134" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D134" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
+        <v>507</v>
+      </c>
+      <c r="B135" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" t="s">
         <v>511</v>
       </c>
-      <c r="B135" t="s">
-        <v>357</v>
-      </c>
-      <c r="C135" t="s">
-        <v>515</v>
-      </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C136" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B137" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C137" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B138" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C138" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D138" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B139" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C139" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D139" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B140" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C140" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D140" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C141" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D141" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B142" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C142" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D142" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C143" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D143" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B144" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D144" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D145" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B146" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C146" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D146" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D147" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C148" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B149" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C149" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B150" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C150" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D150" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B151" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C151" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
+        <v>525</v>
+      </c>
+      <c r="B152" t="s">
+        <v>370</v>
+      </c>
+      <c r="C152" t="s">
         <v>529</v>
       </c>
-      <c r="B152" t="s">
-        <v>374</v>
-      </c>
-      <c r="C152" t="s">
-        <v>533</v>
-      </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B153" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C153" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B154" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C154" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B155" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C155" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B156" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C156" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D156" t="s">
-        <v>308</v>
+        <v>676</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B157" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B158" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C158" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B159" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C159" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
+        <v>534</v>
+      </c>
+      <c r="B160" t="s">
+        <v>378</v>
+      </c>
+      <c r="C160" t="s">
         <v>538</v>
       </c>
-      <c r="B160" t="s">
-        <v>382</v>
-      </c>
-      <c r="C160" t="s">
-        <v>542</v>
-      </c>
       <c r="D160" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C161" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B162" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C162" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D162" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B163" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C163" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D163" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B164" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C164" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B165" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C165" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B166" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C166" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B167" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C167" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C168" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B169" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C169" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B170" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C170" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D170" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B171" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D171" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B172" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C172" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
+        <v>594</v>
+      </c>
+      <c r="B173" t="s">
+        <v>391</v>
+      </c>
+      <c r="C173" t="s">
         <v>598</v>
       </c>
-      <c r="B173" t="s">
-        <v>395</v>
-      </c>
-      <c r="C173" t="s">
-        <v>602</v>
-      </c>
       <c r="D173" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B174" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C174" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B175" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C175" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B176" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C176" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B177" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C177" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D177" t="s">
         <v>16</v>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B178" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C178" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D178" t="s">
         <v>19</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B179" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C179" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D179" t="s">
         <v>22</v>
@@ -5432,13 +5432,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B180" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C180" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D180" t="s">
         <v>25</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B181" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C181" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B182" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C182" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D182" t="s">
         <v>31</v>
@@ -5474,13 +5474,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B183" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C183" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D183" t="s">
         <v>34</v>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C184" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D184" t="s">
         <v>38</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C185" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D185" t="s">
         <v>41</v>
@@ -5516,13 +5516,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B186" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C186" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D186" t="s">
         <v>44</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B187" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C187" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D187" t="s">
         <v>47</v>
@@ -5544,13 +5544,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B188" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C188" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D188" t="s">
         <v>50</v>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B189" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C189" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D189" t="s">
         <v>53</v>
@@ -5572,13 +5572,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B190" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C190" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D190" t="s">
         <v>56</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B191" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C191" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D191" t="s">
         <v>59</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B192" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D192" t="s">
         <v>62</v>
@@ -5614,13 +5614,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B193" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C193" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D193" t="s">
         <v>65</v>
@@ -5628,13 +5628,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B194" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C194" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D194" t="s">
         <v>68</v>
@@ -5642,13 +5642,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B195" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C195" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D195" t="s">
         <v>71</v>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B196" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C196" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D196" t="s">
         <v>74</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B197" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C197" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D197" t="s">
         <v>77</v>
@@ -5684,13 +5684,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B198" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C198" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5698,13 +5698,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B199" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C199" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D199" t="s">
         <v>83</v>
@@ -5712,13 +5712,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B200" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C200" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D200" t="s">
         <v>86</v>
@@ -5726,13 +5726,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C201" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D201" t="s">
         <v>89</v>
@@ -5740,13 +5740,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B202" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C202" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B203" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C203" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D203" t="s">
         <v>95</v>
@@ -5768,13 +5768,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B204" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C204" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D204" t="s">
         <v>98</v>
@@ -5782,13 +5782,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B205" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C205" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D205" t="s">
         <v>101</v>
@@ -5796,13 +5796,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B206" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C206" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D206" t="s">
         <v>104</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B207" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C207" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D207" t="s">
         <v>107</v>
@@ -5824,13 +5824,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B208" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C208" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D208" t="s">
         <v>110</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B209" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C209" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D209" t="s">
         <v>113</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B210" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C210" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D210" t="s">
         <v>116</v>
@@ -5866,13 +5866,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B211" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C211" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D211" t="s">
         <v>119</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B212" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C212" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D212" t="s">
         <v>122</v>
@@ -5894,13 +5894,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B213" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C213" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D213" t="s">
         <v>125</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B214" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C214" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D214" t="s">
         <v>128</v>
@@ -5922,13 +5922,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B215" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C215" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D215" t="s">
         <v>131</v>
@@ -5936,13 +5936,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B216" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C216" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D216" t="s">
         <v>134</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B217" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C217" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D217" t="s">
         <v>137</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B218" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C218" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D218" t="s">
         <v>140</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B219" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C219" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D219" t="s">
         <v>143</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B220" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C220" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D220" t="s">
         <v>146</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B221" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C221" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D221" t="s">
         <v>149</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B222" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C222" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D222" t="s">
         <v>152</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B223" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C223" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D223" t="s">
         <v>155</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B224" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C224" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D224" t="s">
         <v>158</v>
@@ -6062,13 +6062,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B225" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C225" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D225" t="s">
         <v>161</v>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B226" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C226" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D226" t="s">
         <v>164</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B227" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C227" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D227" t="s">
         <v>167</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B228" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C228" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D228" t="s">
         <v>170</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B229" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C229" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D229" t="s">
         <v>173</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B230" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C230" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D230" t="s">
         <v>176</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B231" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C231" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D231" t="s">
         <v>179</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B232" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C232" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D232" t="s">
         <v>182</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B233" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C233" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D233" t="s">
         <v>185</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B234" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C234" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D234" t="s">
         <v>188</v>
@@ -6202,13 +6202,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B235" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C235" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D235" t="s">
         <v>191</v>
@@ -6216,13 +6216,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B236" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C236" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D236" t="s">
         <v>194</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B237" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C237" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D237" t="s">
         <v>197</v>
@@ -6244,13 +6244,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B238" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C238" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D238" t="s">
         <v>200</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B239" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C239" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D239" t="s">
         <v>203</v>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B240" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C240" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D240" t="s">
         <v>206</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B241" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C241" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D241" t="s">
         <v>209</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B242" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C242" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D242" t="s">
         <v>212</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B243" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C243" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D243" t="s">
         <v>215</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B244" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C244" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D244" t="s">
         <v>261</v>
@@ -6342,13 +6342,13 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B245" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C245" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D245" t="s">
         <v>262</v>
